--- a/Exams list.xlsx
+++ b/Exams list.xlsx
@@ -5,22 +5,22 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudipRana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SudipRana\Desktop\POI-Practise\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B051D7-81B2-4124-9BB1-F6E0AA49E731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE00CA-169E-408A-AC39-68681805AA1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exam List" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="17">
   <si>
     <t>Student name</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Kirsten Mcdowell</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -425,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225:D317"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,13 +486,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -706,14 +709,11 @@
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -915,9 +915,6 @@
     <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
